--- a/國際併購/final_task/weight.xlsx
+++ b/國際併購/final_task/weight.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/Desktop/碩士/碩二/國際併購/final_task/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/Github/M2/國際併購/final_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5337224-E8B4-2F40-B1E7-60F034807CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC761D2-07B7-3B47-BFC8-2E8A9DA83CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="0" windowWidth="21480" windowHeight="18000" activeTab="4" xr2:uid="{97444554-7081-F648-9ABC-A5219D7EDD3E}"/>
+    <workbookView xWindow="6000" yWindow="0" windowWidth="22800" windowHeight="18000" activeTab="1" xr2:uid="{97444554-7081-F648-9ABC-A5219D7EDD3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Step1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,267 +59,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>0.025487000000000003</t>
-  </si>
-  <si>
-    <t>0.13558859565156486</t>
-  </si>
-  <si>
-    <t>0.37256483980623706</t>
-  </si>
-  <si>
-    <t>0.012310219049351803</t>
-  </si>
-  <si>
-    <t>0.3058076536249433</t>
-  </si>
-  <si>
-    <t>0.022132214668016778</t>
-  </si>
-  <si>
-    <t>0.34484947348242195</t>
-  </si>
-  <si>
-    <t>0.020917112686243314</t>
-  </si>
-  <si>
-    <t>0.011368407136782974</t>
-  </si>
-  <si>
-    <t>0.019528424707073628</t>
-  </si>
-  <si>
-    <t>0.46858663521524246</t>
-  </si>
-  <si>
-    <t>0.46527146470365227</t>
-  </si>
-  <si>
-    <t>0.26045741524835253</t>
-  </si>
-  <si>
-    <t>0.027578000000000002</t>
-  </si>
-  <si>
-    <t>0.15346113545720516</t>
-  </si>
-  <si>
-    <t>0.21427544680544675</t>
-  </si>
-  <si>
-    <t>0.34473559706569973</t>
-  </si>
-  <si>
-    <t>0.2902037633209954</t>
-  </si>
-  <si>
-    <t>0.022418999999999998</t>
-  </si>
-  <si>
-    <t>0.24366878261312633</t>
-  </si>
-  <si>
-    <t>0.042319458882511374</t>
-  </si>
-  <si>
-    <t>0.025192000000000003</t>
-  </si>
-  <si>
-    <t>0.24719405060170863</t>
-  </si>
-  <si>
-    <t>0.20576484427156738</t>
-  </si>
-  <si>
-    <t>0.13570095298091991</t>
-  </si>
-  <si>
-    <t>0.014221999999999999</t>
-  </si>
-  <si>
-    <t>0.018892911857535662</t>
-  </si>
-  <si>
-    <t>0.18595124802041663</t>
-  </si>
-  <si>
-    <t>0.039876999999999996</t>
-  </si>
-  <si>
-    <t>0.1452186899598504</t>
-  </si>
-  <si>
-    <t>0.5008716656914118</t>
-  </si>
-  <si>
-    <t>0.15808924265157048</t>
-  </si>
-  <si>
-    <t>0.2560731091380943</t>
-  </si>
-  <si>
-    <t>0.47416501332195204</t>
-  </si>
-  <si>
-    <t>0.024548999999999998</t>
-  </si>
-  <si>
-    <t>0.3885442453497167</t>
-  </si>
-  <si>
-    <t>0.27175886561024337</t>
-  </si>
-  <si>
-    <t>0.24082899725628923</t>
-  </si>
-  <si>
-    <t>0.34558622827300095</t>
-  </si>
-  <si>
-    <t>0.049046000000000006</t>
-  </si>
-  <si>
-    <t>0.27177214781845904</t>
-  </si>
-  <si>
-    <t>0.010027999999999999</t>
-  </si>
-  <si>
-    <t>0.22423171405667763</t>
-  </si>
-  <si>
-    <t>0.14100769879156191</t>
-  </si>
-  <si>
-    <t>0.3320191880143028</t>
-  </si>
-  <si>
-    <t>0.22637449987311967</t>
-  </si>
-  <si>
-    <t>0.11088300000000001</t>
-  </si>
-  <si>
-    <t>0.12113677067027043</t>
-  </si>
-  <si>
-    <t>0.16770486099728585</t>
-  </si>
-  <si>
-    <t>0.2878443191792277</t>
-  </si>
-  <si>
-    <t>0.029325999999999998</t>
-  </si>
-  <si>
-    <t>0.26663495161133755</t>
-  </si>
-  <si>
-    <t>0.028062999999999998</t>
-  </si>
-  <si>
-    <t>0.016734128994065966</t>
-  </si>
-  <si>
-    <t>0.3039549250280855</t>
-  </si>
-  <si>
-    <t>0.015172000000000001</t>
-  </si>
-  <si>
-    <t>0.37421271959153835</t>
-  </si>
-  <si>
-    <t>0.22638690780540036</t>
-  </si>
-  <si>
-    <t>0.046723999999999995</t>
-  </si>
-  <si>
-    <t>0.44801111153204487</t>
-  </si>
-  <si>
-    <t>0.11506146531992985</t>
-  </si>
-  <si>
-    <t>0.024794999999999998</t>
-  </si>
-  <si>
-    <t>0.2857665345945029</t>
-  </si>
-  <si>
-    <t>0.020830319687545205</t>
-  </si>
-  <si>
-    <t>0.034849000000000005</t>
-  </si>
-  <si>
-    <t>0.11793503530579398</t>
-  </si>
-  <si>
-    <t>0.2905558001225729</t>
-  </si>
-  <si>
-    <t>0.2651434998323789</t>
-  </si>
-  <si>
-    <t>0.025169969622450453</t>
-  </si>
-  <si>
-    <t>0.15228603889309278</t>
-  </si>
-  <si>
-    <t>0.027339794589903082</t>
-  </si>
-  <si>
-    <t>0.19776991559909915</t>
-  </si>
-  <si>
-    <t>0.20992819073632998</t>
-  </si>
-  <si>
-    <t>0.5365341186831404</t>
-  </si>
-  <si>
-    <t>0.11767776577152549</t>
-  </si>
-  <si>
-    <t>0.1603810609811745</t>
-  </si>
-  <si>
-    <t>0.012523743310635629</t>
-  </si>
-  <si>
-    <t>0.30181318544836233</t>
-  </si>
-  <si>
-    <t>0.029509619557355708</t>
-  </si>
-  <si>
-    <t>0.1733865549702201</t>
-  </si>
-  <si>
-    <t>0.037221000000000004</t>
-  </si>
-  <si>
-    <t>0.26196142604621203</t>
-  </si>
-  <si>
-    <t>0.13485476206211552</t>
-  </si>
-  <si>
-    <t>0.029010301315462908</t>
-  </si>
-  <si>
-    <t>0.4258969191026423</t>
-  </si>
-  <si>
-    <t>0.024725999999999998</t>
   </si>
   <si>
     <t>無風險利率</t>
@@ -980,13 +722,10 @@
     <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
@@ -997,6 +736,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1375,14 +1117,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B726F554-B5AE-0146-9961-F7C03E968EF1}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C68" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="5" width="22.1640625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="22.1640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1391,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1407,13 +1149,13 @@
       <c r="B2" s="2">
         <v>41944</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="8">
+        <v>2.5486999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
         <v>-0.10141380800322899</v>
       </c>
     </row>
@@ -1424,13 +1166,13 @@
       <c r="B3" s="2">
         <v>41974</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>2.1686E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>0.25929571094563097</v>
       </c>
     </row>
@@ -1441,14 +1183,14 @@
       <c r="B4" s="2">
         <v>42005</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>5.5529999999999998E-3</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
+      <c r="E4" s="8">
+        <v>0.135588595651564</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1458,13 +1200,13 @@
       <c r="B5" s="2">
         <v>42036</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>2.3067000000000001E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>-0.17426032440380901</v>
       </c>
     </row>
@@ -1475,13 +1217,13 @@
       <c r="B6" s="2">
         <v>42064</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>-3.7030000000000001E-3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>-1.3611226628557099E-2</v>
       </c>
     </row>
@@ -1492,14 +1234,14 @@
       <c r="B7" s="2">
         <v>42095</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>1.0048E-2</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
+      <c r="E7" s="8">
+        <v>0.372564839806237</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1509,13 +1251,13 @@
       <c r="B8" s="2">
         <v>42125</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>-1.247E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>-0.333643559219859</v>
       </c>
     </row>
@@ -1526,14 +1268,14 @@
       <c r="B9" s="2">
         <v>42156</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>-3.7437999999999999E-2</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
+      <c r="E9" s="8">
+        <v>1.2310219049351799E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1543,14 +1285,14 @@
       <c r="B10" s="2">
         <v>42186</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>-6.5626000000000004E-2</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>5</v>
+      <c r="E10" s="8">
+        <v>0.305807653624943</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1560,13 +1302,13 @@
       <c r="B11" s="2">
         <v>42217</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>-5.0618999999999997E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>-6.3508533421454405E-2</v>
       </c>
     </row>
@@ -1577,13 +1319,13 @@
       <c r="B12" s="2">
         <v>42248</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>1.8186000000000001E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>-3.0977762659245602E-2</v>
       </c>
     </row>
@@ -1594,13 +1336,13 @@
       <c r="B13" s="2">
         <v>42278</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="8">
+        <v>2.2132214668016702E-2</v>
+      </c>
+      <c r="D13" s="1">
         <v>4.7784E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>7.0184356107787504E-2</v>
       </c>
     </row>
@@ -1611,14 +1353,14 @@
       <c r="B14" s="2">
         <v>42309</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="8">
+        <v>2.2132214668016702E-2</v>
+      </c>
+      <c r="D14" s="1">
         <v>-2.5437999999999999E-2</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
+      <c r="E14" s="8">
+        <v>0.34484947348242101</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1628,13 +1370,13 @@
       <c r="B15" s="2">
         <v>42339</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="8">
+        <v>2.2132214668016702E-2</v>
+      </c>
+      <c r="D15" s="1">
         <v>7.5139999999999998E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>-2.40536958684394E-2</v>
       </c>
     </row>
@@ -1645,13 +1387,13 @@
       <c r="B16" s="2">
         <v>42370</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="8">
+        <v>2.09171126862433E-2</v>
+      </c>
+      <c r="D16" s="1">
         <v>-1.7492000000000001E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>9.7006590112495208E-3</v>
       </c>
     </row>
@@ -1662,14 +1404,14 @@
       <c r="B17" s="2">
         <v>42401</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="8">
+        <v>2.09171126862433E-2</v>
+      </c>
+      <c r="D17" s="1">
         <v>3.5366000000000002E-2</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
+      <c r="E17" s="8">
+        <v>1.13684071367829E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1679,14 +1421,14 @@
       <c r="B18" s="2">
         <v>42430</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="8">
+        <v>1.95284247070736E-2</v>
+      </c>
+      <c r="D18" s="1">
         <v>3.7925E-2</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
+      <c r="E18" s="8">
+        <v>0.46858663521524202</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1696,14 +1438,14 @@
       <c r="B19" s="2">
         <v>42461</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="8">
+        <v>1.95284247070736E-2</v>
+      </c>
+      <c r="D19" s="1">
         <v>-4.4600999999999898E-2</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>12</v>
+      <c r="E19" s="8">
+        <v>0.46527146470365199</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1713,14 +1455,14 @@
       <c r="B20" s="2">
         <v>42491</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="8">
+        <v>1.95284247070736E-2</v>
+      </c>
+      <c r="D20" s="1">
         <v>1.721E-2</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
+      <c r="E20" s="8">
+        <v>0.26045741524835198</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1730,14 +1472,14 @@
       <c r="B21" s="2">
         <v>42522</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>15</v>
+      <c r="C21" s="8">
+        <v>1.95284247070736E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2.7577999999999998E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.15346113545720499</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1747,14 +1489,14 @@
       <c r="B22" s="2">
         <v>42552</v>
       </c>
-      <c r="C22" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D22" s="1">
         <v>5.1691000000000001E-2</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>16</v>
+      <c r="E22" s="8">
+        <v>0.214275446805446</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1764,14 +1506,14 @@
       <c r="B23" s="2">
         <v>42583</v>
       </c>
-      <c r="C23" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D23" s="1">
         <v>1.3990000000000001E-2</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
+      <c r="E23" s="8">
+        <v>0.34473559706569901</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1781,13 +1523,13 @@
       <c r="B24" s="2">
         <v>42614</v>
       </c>
-      <c r="C24" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D24" s="1">
         <v>1.3873999999999999E-2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>-7.5473467408226497E-2</v>
       </c>
     </row>
@@ -1798,14 +1540,14 @@
       <c r="B25" s="2">
         <v>42644</v>
       </c>
-      <c r="C25" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D25" s="1">
         <v>1.0083999999999999E-2</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>18</v>
+      <c r="E25" s="8">
+        <v>0.29020376332099501</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1815,13 +1557,13 @@
       <c r="B26" s="2">
         <v>42675</v>
       </c>
-      <c r="C26" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="C26" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D26" s="1">
         <v>-1.7610000000000001E-2</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>-0.13054971660558201</v>
       </c>
     </row>
@@ -1832,13 +1574,13 @@
       <c r="B27" s="2">
         <v>42705</v>
       </c>
-      <c r="C27" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="C27" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D27" s="1">
         <v>7.6399999999999895E-4</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>-2.3854464475103299E-2</v>
       </c>
     </row>
@@ -1849,14 +1591,14 @@
       <c r="B28" s="2">
         <v>42736</v>
       </c>
-      <c r="C28" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>20</v>
+      <c r="C28" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2.2418999999999901E-2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.24366878261312599</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1866,13 +1608,13 @@
       <c r="B29" s="2">
         <v>42767</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="C29" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D29" s="1">
         <v>3.6109000000000002E-2</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="1">
         <v>-0.16081988492101501</v>
       </c>
     </row>
@@ -1883,13 +1625,13 @@
       <c r="B30" s="2">
         <v>42795</v>
       </c>
-      <c r="C30" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="C30" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D30" s="1">
         <v>4.5069999999999997E-3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="1">
         <v>6.2329395867328802E-2</v>
       </c>
     </row>
@@ -1900,13 +1642,13 @@
       <c r="B31" s="2">
         <v>42826</v>
       </c>
-      <c r="C31" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="C31" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D31" s="1">
         <v>6.3790000000000001E-3</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="1">
         <v>-6.2645191945533807E-2</v>
       </c>
     </row>
@@ -1917,14 +1659,14 @@
       <c r="B32" s="2">
         <v>42856</v>
       </c>
-      <c r="C32" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="C32" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D32" s="1">
         <v>1.8041000000000001E-2</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>21</v>
+      <c r="E32" s="8">
+        <v>4.2319458882511297E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1934,13 +1676,13 @@
       <c r="B33" s="2">
         <v>42887</v>
       </c>
-      <c r="C33" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="C33" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D33" s="1">
         <v>4.1258999999999997E-2</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="1">
         <v>-0.39804728937615202</v>
       </c>
     </row>
@@ -1951,13 +1693,13 @@
       <c r="B34" s="2">
         <v>42917</v>
       </c>
-      <c r="C34" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="C34" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2.5191999999999999E-2</v>
+      </c>
+      <c r="E34" s="1">
         <v>-0.220191727351261</v>
       </c>
     </row>
@@ -1968,13 +1710,13 @@
       <c r="B35" s="2">
         <v>42948</v>
       </c>
-      <c r="C35" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="C35" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D35" s="1">
         <v>2.2828000000000001E-2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="1">
         <v>-3.4612794105171402E-2</v>
       </c>
     </row>
@@ -1985,14 +1727,14 @@
       <c r="B36" s="2">
         <v>42979</v>
       </c>
-      <c r="C36" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C36" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D36" s="1">
         <v>-1.6462999999999998E-2</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>23</v>
+      <c r="E36" s="8">
+        <v>0.24719405060170799</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2002,13 +1744,13 @@
       <c r="B37" s="2">
         <v>43009</v>
       </c>
-      <c r="C37" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="C37" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D37" s="1">
         <v>4.0819000000000001E-2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="1">
         <v>5.65165959874393E-2</v>
       </c>
     </row>
@@ -2019,13 +1761,13 @@
       <c r="B38" s="2">
         <v>43040</v>
       </c>
-      <c r="C38" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="C38" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D38" s="1">
         <v>-2.17309999999999E-2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="1">
         <v>8.7077961572638404E-2</v>
       </c>
     </row>
@@ -2036,14 +1778,14 @@
       <c r="B39" s="2">
         <v>43070</v>
       </c>
-      <c r="C39" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="C39" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D39" s="1">
         <v>2.2439999999999999E-3</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>24</v>
+      <c r="E39" s="8">
+        <v>0.20576484427156699</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2053,13 +1795,13 @@
       <c r="B40" s="2">
         <v>43101</v>
       </c>
-      <c r="C40" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="C40" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D40" s="1">
         <v>4.1840000000000002E-2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="1">
         <v>-6.5724409898048994E-2</v>
       </c>
     </row>
@@ -2070,14 +1812,14 @@
       <c r="B41" s="2">
         <v>43132</v>
       </c>
-      <c r="C41" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="C41" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D41" s="1">
         <v>-2.9498E-2</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>25</v>
+      <c r="E41" s="8">
+        <v>0.135700952980919</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2087,13 +1829,13 @@
       <c r="B42" s="2">
         <v>43160</v>
       </c>
-      <c r="C42" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="C42" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1.42219999999999E-2</v>
+      </c>
+      <c r="E42" s="1">
         <v>-5.2880401500854102E-2</v>
       </c>
     </row>
@@ -2104,13 +1846,13 @@
       <c r="B43" s="2">
         <v>43191</v>
       </c>
-      <c r="C43" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="C43" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D43" s="1">
         <v>-3.2940999999999998E-2</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="1">
         <v>-0.21259585422360699</v>
       </c>
     </row>
@@ -2121,14 +1863,14 @@
       <c r="B44" s="2">
         <v>43221</v>
       </c>
-      <c r="C44" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="C44" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D44" s="1">
         <v>2.5883E-2</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>27</v>
+      <c r="E44" s="8">
+        <v>1.88929118575356E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2138,14 +1880,14 @@
       <c r="B45" s="2">
         <v>43252</v>
       </c>
-      <c r="C45" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="C45" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D45" s="1">
         <v>2.6219999999999898E-3</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>28</v>
+      <c r="E45" s="8">
+        <v>0.18595124802041599</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2155,14 +1897,14 @@
       <c r="B46" s="2">
         <v>43282</v>
       </c>
-      <c r="C46" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>30</v>
+      <c r="C46" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D46" s="8">
+        <v>3.9876999999999899E-2</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.14521868995984999</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2172,13 +1914,13 @@
       <c r="B47" s="2">
         <v>43313</v>
       </c>
-      <c r="C47" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="C47" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D47" s="1">
         <v>-1.07E-4</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="1">
         <v>8.4536443667627303E-2</v>
       </c>
     </row>
@@ -2189,14 +1931,14 @@
       <c r="B48" s="2">
         <v>43344</v>
       </c>
-      <c r="C48" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C48" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D48" s="1">
         <v>-1.5184E-2</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>31</v>
+      <c r="E48" s="8">
+        <v>0.50087166569141095</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2206,14 +1948,14 @@
       <c r="B49" s="2">
         <v>43374</v>
       </c>
-      <c r="C49" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="C49" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D49" s="1">
         <v>-0.119809</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>32</v>
+      <c r="E49" s="8">
+        <v>0.15808924265157001</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2223,14 +1965,14 @@
       <c r="B50" s="2">
         <v>43405</v>
       </c>
-      <c r="C50" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D50" s="4">
+      <c r="C50" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D50" s="1">
         <v>1.5547999999999999E-2</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>33</v>
+      <c r="E50" s="8">
+        <v>0.256073109138094</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2240,14 +1982,14 @@
       <c r="B51" s="2">
         <v>43435</v>
       </c>
-      <c r="C51" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D51" s="4">
+      <c r="C51" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D51" s="1">
         <v>-1.7004999999999999E-2</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>34</v>
+      <c r="E51" s="8">
+        <v>0.47416501332195199</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2257,13 +1999,13 @@
       <c r="B52" s="2">
         <v>43466</v>
       </c>
-      <c r="C52" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="C52" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2.4548999999999901E-2</v>
+      </c>
+      <c r="E52" s="1">
         <v>-0.13751196752251399</v>
       </c>
     </row>
@@ -2274,13 +2016,13 @@
       <c r="B53" s="2">
         <v>43497</v>
       </c>
-      <c r="C53" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D53" s="4">
+      <c r="C53" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D53" s="1">
         <v>4.8672E-2</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="1">
         <v>-9.3302098278641096E-2</v>
       </c>
     </row>
@@ -2291,14 +2033,14 @@
       <c r="B54" s="2">
         <v>43525</v>
       </c>
-      <c r="C54" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="C54" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D54" s="1">
         <v>2.4049000000000001E-2</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>36</v>
+      <c r="E54" s="8">
+        <v>0.38854424534971599</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2308,13 +2050,13 @@
       <c r="B55" s="2">
         <v>43556</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D55" s="4">
+      <c r="C55" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D55" s="1">
         <v>2.8715999999999998E-2</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="1">
         <v>-5.1615603478189297E-2</v>
       </c>
     </row>
@@ -2325,13 +2067,13 @@
       <c r="B56" s="2">
         <v>43586</v>
       </c>
-      <c r="C56" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D56" s="4">
+      <c r="C56" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D56" s="1">
         <v>-4.99E-2</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="1">
         <v>9.1725386477016502E-2</v>
       </c>
     </row>
@@ -2342,14 +2084,14 @@
       <c r="B57" s="2">
         <v>43617</v>
       </c>
-      <c r="C57" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="C57" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D57" s="1">
         <v>3.3364999999999999E-2</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>37</v>
+      <c r="E57" s="8">
+        <v>0.27175886561024298</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2359,14 +2101,14 @@
       <c r="B58" s="2">
         <v>43647</v>
       </c>
-      <c r="C58" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D58" s="4">
+      <c r="C58" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D58" s="1">
         <v>3.4741000000000001E-2</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>38</v>
+      <c r="E58" s="8">
+        <v>0.24082899725628901</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2376,13 +2118,13 @@
       <c r="B59" s="2">
         <v>43678</v>
       </c>
-      <c r="C59" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D59" s="4">
+      <c r="C59" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D59" s="1">
         <v>-1.2383999999999999E-2</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="1">
         <v>0.39047924244355903</v>
       </c>
     </row>
@@ -2393,14 +2135,14 @@
       <c r="B60" s="2">
         <v>43709</v>
       </c>
-      <c r="C60" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D60" s="4">
+      <c r="C60" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D60" s="1">
         <v>1.9923E-2</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>39</v>
+      <c r="E60" s="8">
+        <v>0.34558622827300001</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2410,14 +2152,14 @@
       <c r="B61" s="2">
         <v>43739</v>
       </c>
-      <c r="C61" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>41</v>
+      <c r="C61" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D61" s="8">
+        <v>4.9045999999999999E-2</v>
+      </c>
+      <c r="E61" s="8">
+        <v>0.27177214781845899</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2427,13 +2169,13 @@
       <c r="B62" s="2">
         <v>43770</v>
       </c>
-      <c r="C62" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="C62" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1.00279999999999E-2</v>
+      </c>
+      <c r="E62" s="1">
         <v>-4.7225040890286701E-2</v>
       </c>
     </row>
@@ -2444,14 +2186,14 @@
       <c r="B63" s="2">
         <v>43800</v>
       </c>
-      <c r="C63" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="C63" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D63" s="1">
         <v>4.7690999999999997E-2</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>43</v>
+      <c r="E63" s="8">
+        <v>0.224231714056677</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2461,14 +2203,14 @@
       <c r="B64" s="2">
         <v>43831</v>
       </c>
-      <c r="C64" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="C64" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D64" s="1">
         <v>-4.7992E-2</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>44</v>
+      <c r="E64" s="8">
+        <v>0.141007698791561</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2478,13 +2220,13 @@
       <c r="B65" s="2">
         <v>43862</v>
       </c>
-      <c r="C65" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="C65" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D65" s="1">
         <v>-1.9925999999999999E-2</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="1">
         <v>-0.143084610404309</v>
       </c>
     </row>
@@ -2495,14 +2237,14 @@
       <c r="B66" s="2">
         <v>43891</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="1">
         <v>-0.13847400000000001</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>45</v>
+      <c r="E66" s="8">
+        <v>0.33201918801430202</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2512,14 +2254,14 @@
       <c r="B67" s="2">
         <v>43922</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="1">
         <v>0.139047</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>46</v>
+      <c r="E67" s="8">
+        <v>0.226374499873119</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2529,13 +2271,13 @@
       <c r="B68" s="2">
         <v>43952</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="1">
         <v>1.954E-3</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="1">
         <v>9.4462662970494493E-2</v>
       </c>
     </row>
@@ -2546,13 +2288,13 @@
       <c r="B69" s="2">
         <v>43983</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="1">
         <v>7.4548000000000003E-2</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="1">
         <v>4.6220519093965899E-2</v>
       </c>
     </row>
@@ -2563,13 +2305,13 @@
       <c r="B70" s="2">
         <v>44013</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E70" s="4">
+      <c r="D70" s="8">
+        <v>0.110883</v>
+      </c>
+      <c r="E70" s="1">
         <v>-0.120924995753296</v>
       </c>
     </row>
@@ -2580,14 +2322,14 @@
       <c r="B71" s="2">
         <v>44044</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="1">
         <v>1.0870000000000001E-3</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>48</v>
+      <c r="E71" s="8">
+        <v>0.12113677067027</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2597,14 +2339,14 @@
       <c r="B72" s="2">
         <v>44075</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="1">
         <v>-2.1919999999999999E-3</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>49</v>
+      <c r="E72" s="8">
+        <v>0.16770486099728499</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2614,13 +2356,13 @@
       <c r="B73" s="2">
         <v>44105</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="1">
         <v>4.1939999999999998E-3</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="1">
         <v>-5.7346197077280003E-2</v>
       </c>
     </row>
@@ -2631,14 +2373,14 @@
       <c r="B74" s="2">
         <v>44136</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="1">
         <v>9.7289E-2</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>50</v>
+      <c r="E74" s="8">
+        <v>0.28784431917922698</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2648,13 +2390,13 @@
       <c r="B75" s="2">
         <v>44166</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="1">
         <v>7.5991000000000003E-2</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="1">
         <v>-0.10341781108029</v>
       </c>
     </row>
@@ -2665,13 +2407,13 @@
       <c r="B76" s="2">
         <v>44197</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="4">
+      <c r="D76" s="8">
+        <v>2.9325999999999901E-2</v>
+      </c>
+      <c r="E76" s="1">
         <v>-0.28107272116839699</v>
       </c>
     </row>
@@ -2682,14 +2424,14 @@
       <c r="B77" s="2">
         <v>44228</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="1">
         <v>5.6499000000000001E-2</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>52</v>
+      <c r="E77" s="8">
+        <v>0.26663495161133699</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2699,14 +2441,14 @@
       <c r="B78" s="2">
         <v>44256</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>54</v>
+      <c r="D78" s="8">
+        <v>2.8062999999999901E-2</v>
+      </c>
+      <c r="E78" s="8">
+        <v>1.67341289940659E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2716,13 +2458,13 @@
       <c r="B79" s="2">
         <v>44287</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="1">
         <v>6.8311999999999998E-2</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="1">
         <v>6.47605566037837E-2</v>
       </c>
     </row>
@@ -2733,13 +2475,13 @@
       <c r="B80" s="2">
         <v>44317</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="1">
         <v>-3.5685000000000001E-2</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="1">
         <v>-5.8447861046790298E-2</v>
       </c>
     </row>
@@ -2750,13 +2492,13 @@
       <c r="B81" s="2">
         <v>44348</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="1">
         <v>4.8728E-2</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="1">
         <v>-0.19151986669069701</v>
       </c>
     </row>
@@ -2767,14 +2509,14 @@
       <c r="B82" s="2">
         <v>44378</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="1">
         <v>-2.1326000000000001E-2</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>55</v>
+      <c r="E82" s="8">
+        <v>0.30395492502808502</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2784,13 +2526,13 @@
       <c r="B83" s="2">
         <v>44409</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E83" s="4">
+      <c r="D83" s="8">
+        <v>1.5172E-2</v>
+      </c>
+      <c r="E83" s="1">
         <v>-3.27064923821722E-2</v>
       </c>
     </row>
@@ -2801,14 +2543,14 @@
       <c r="B84" s="2">
         <v>44440</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="1">
         <v>-3.1844999999999998E-2</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>57</v>
+      <c r="E84" s="8">
+        <v>0.37421271959153801</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2818,14 +2560,14 @@
       <c r="B85" s="2">
         <v>44470</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="1">
         <v>4.7869999999999996E-3</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>58</v>
+      <c r="E85" s="8">
+        <v>0.2263869078054</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2835,13 +2577,13 @@
       <c r="B86" s="2">
         <v>44501</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="1">
         <v>2.7913E-2</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="1">
         <v>3.2078381213483803E-2</v>
       </c>
     </row>
@@ -2852,13 +2594,13 @@
       <c r="B87" s="2">
         <v>44531</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87" s="4">
+      <c r="D87" s="8">
+        <v>4.6723999999999898E-2</v>
+      </c>
+      <c r="E87" s="1">
         <v>-0.10146087530541099</v>
       </c>
     </row>
@@ -2869,13 +2611,13 @@
       <c r="B88" s="2">
         <v>44562</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="1">
         <v>-4.1428E-2</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="1">
         <v>-4.0255504334049397E-2</v>
       </c>
     </row>
@@ -2886,13 +2628,13 @@
       <c r="B89" s="2">
         <v>44593</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="1">
         <v>-8.9599999999999999E-4</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="1">
         <v>-0.123387820936092</v>
       </c>
     </row>
@@ -2903,14 +2645,14 @@
       <c r="B90" s="2">
         <v>44621</v>
       </c>
-      <c r="C90" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D90" s="4">
+      <c r="C90" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D90" s="1">
         <v>-3.4529999999999999E-3</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>60</v>
+      <c r="E90" s="8">
+        <v>0.44801111153204398</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2920,14 +2662,14 @@
       <c r="B91" s="2">
         <v>44652</v>
       </c>
-      <c r="C91" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D91" s="4">
+      <c r="C91" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D91" s="1">
         <v>-7.0456000000000005E-2</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>61</v>
+      <c r="E91" s="8">
+        <v>0.115061465319929</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2937,14 +2679,14 @@
       <c r="B92" s="2">
         <v>44682</v>
       </c>
-      <c r="C92" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>63</v>
+      <c r="C92" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>2.47949999999999E-2</v>
+      </c>
+      <c r="E92" s="8">
+        <v>0.28576653459450202</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2954,13 +2696,13 @@
       <c r="B93" s="2">
         <v>44713</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="C93" s="8">
+        <v>2.0830319687545201E-2</v>
+      </c>
+      <c r="D93" s="1">
         <v>-0.10867300000000001</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="1">
         <v>-0.13288255929697099</v>
       </c>
     </row>
@@ -2971,14 +2713,14 @@
       <c r="B94" s="2">
         <v>44743</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>66</v>
+      <c r="C94" s="8">
+        <v>2.0830319687545201E-2</v>
+      </c>
+      <c r="D94" s="8">
+        <v>3.4848999999999998E-2</v>
+      </c>
+      <c r="E94" s="8">
+        <v>0.117935035305793</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2988,14 +2730,14 @@
       <c r="B95" s="2">
         <v>44774</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D95" s="4">
+      <c r="C95" s="8">
+        <v>2.0830319687545201E-2</v>
+      </c>
+      <c r="D95" s="1">
         <v>1.502E-2</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>67</v>
+      <c r="E95" s="8">
+        <v>0.29055580012257198</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3005,13 +2747,13 @@
       <c r="B96" s="2">
         <v>44805</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="1">
         <v>2.3000144654997799E-2</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="1">
         <v>-0.11479499999999999</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="1">
         <v>2.8571230426864901E-2</v>
       </c>
     </row>
@@ -3022,14 +2764,14 @@
       <c r="B97" s="2">
         <v>44835</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="1">
         <v>2.3000144654997799E-2</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="1">
         <v>-3.7534999999999999E-2</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>68</v>
+      <c r="E97" s="8">
+        <v>0.265143499832378</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3039,13 +2781,13 @@
       <c r="B98" s="2">
         <v>44866</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="1">
         <v>2.3000144654997799E-2</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="1">
         <v>0.15134300000000001</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="1">
         <v>-0.101229781467851</v>
       </c>
     </row>
@@ -3056,13 +2798,13 @@
       <c r="B99" s="2">
         <v>44896</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="4">
+      <c r="C99" s="8">
+        <v>2.5169969622450401E-2</v>
+      </c>
+      <c r="D99" s="1">
         <v>-4.7500000000000001E-2</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="1">
         <v>-0.14952759802625701</v>
       </c>
     </row>
@@ -3073,14 +2815,14 @@
       <c r="B100" s="2">
         <v>44927</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="4">
+      <c r="C100" s="8">
+        <v>2.5169969622450401E-2</v>
+      </c>
+      <c r="D100" s="1">
         <v>8.3240999999999996E-2</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>70</v>
+      <c r="E100" s="8">
+        <v>0.152286038893092</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3090,13 +2832,13 @@
       <c r="B101" s="2">
         <v>44958</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="4">
+      <c r="C101" s="8">
+        <v>2.5169969622450401E-2</v>
+      </c>
+      <c r="D101" s="1">
         <v>1.8727000000000001E-2</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="1">
         <v>2.0923049098641702E-2</v>
       </c>
     </row>
@@ -3107,14 +2849,14 @@
       <c r="B102" s="2">
         <v>44986</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D102" s="4">
+      <c r="C102" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D102" s="1">
         <v>3.1924000000000001E-2</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>72</v>
+      <c r="E102" s="8">
+        <v>0.19776991559909901</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3124,13 +2866,13 @@
       <c r="B103" s="2">
         <v>45017</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" s="4">
+      <c r="C103" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D103" s="1">
         <v>-2.2835999999999999E-2</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="1">
         <v>-0.25592624786478801</v>
       </c>
     </row>
@@ -3141,14 +2883,14 @@
       <c r="B104" s="2">
         <v>45047</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D104" s="4">
+      <c r="C104" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D104" s="1">
         <v>6.3951999999999995E-2</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>73</v>
+      <c r="E104" s="8">
+        <v>0.20992819073632901</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3158,14 +2900,14 @@
       <c r="B105" s="2">
         <v>45078</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D105" s="4">
+      <c r="C105" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D105" s="1">
         <v>3.7093000000000001E-2</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>74</v>
+      <c r="E105" s="8">
+        <v>0.53653411868314005</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3175,13 +2917,13 @@
       <c r="B106" s="2">
         <v>45108</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D106" s="4">
+      <c r="C106" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D106" s="1">
         <v>1.7646999999999999E-2</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="1">
         <v>8.2320645774191403E-2</v>
       </c>
     </row>
@@ -3192,13 +2934,13 @@
       <c r="B107" s="2">
         <v>45139</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D107" s="4">
+      <c r="C107" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D107" s="1">
         <v>-2.6884999999999999E-2</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="1">
         <v>9.2497535139736797E-2</v>
       </c>
     </row>
@@ -3209,14 +2951,14 @@
       <c r="B108" s="2">
         <v>45170</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D108" s="4">
+      <c r="C108" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D108" s="1">
         <v>-1.6482E-2</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>75</v>
+      <c r="E108" s="8">
+        <v>0.117677765771525</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3226,13 +2968,13 @@
       <c r="B109" s="2">
         <v>45200</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D109" s="4">
+      <c r="C109" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D109" s="1">
         <v>-2.2737E-2</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="1">
         <v>-0.23585369763951999</v>
       </c>
     </row>
@@ -3243,14 +2985,14 @@
       <c r="B110" s="2">
         <v>45231</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D110" s="4">
+      <c r="C110" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D110" s="1">
         <v>9.1646000000000005E-2</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>76</v>
+      <c r="E110" s="8">
+        <v>0.160381060981174</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3260,13 +3002,13 @@
       <c r="B111" s="2">
         <v>45261</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D111" s="4">
+      <c r="C111" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D111" s="1">
         <v>2.9387E-2</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="1">
         <v>-0.19142410064079099</v>
       </c>
     </row>
@@ -3277,14 +3019,14 @@
       <c r="B112" s="2">
         <v>45292</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D112" s="4">
+      <c r="C112" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D112" s="1">
         <v>1.8659999999999901E-3</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>77</v>
+      <c r="E112" s="8">
+        <v>1.2523743310635599E-2</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3294,14 +3036,14 @@
       <c r="B113" s="2">
         <v>45323</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D113" s="4">
+      <c r="C113" s="8">
+        <v>2.7339794589902999E-2</v>
+      </c>
+      <c r="D113" s="1">
         <v>6.0871000000000001E-2</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>78</v>
+      <c r="E113" s="8">
+        <v>0.301813185448362</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3311,13 +3053,13 @@
       <c r="B114" s="2">
         <v>45352</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D114" s="4">
+      <c r="C114" s="8">
+        <v>2.9509619557355701E-2</v>
+      </c>
+      <c r="D114" s="1">
         <v>6.6184999999999994E-2</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="1">
         <v>-4.0732583117406802E-2</v>
       </c>
     </row>
@@ -3328,14 +3070,14 @@
       <c r="B115" s="2">
         <v>45383</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D115" s="4">
+      <c r="C115" s="8">
+        <v>2.9509619557355701E-2</v>
+      </c>
+      <c r="D115" s="1">
         <v>1.7409999999999999E-3</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>80</v>
+      <c r="E115" s="8">
+        <v>0.17338655497022001</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3345,14 +3087,14 @@
       <c r="B116" s="2">
         <v>45413</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>82</v>
+      <c r="C116" s="8">
+        <v>2.9509619557355701E-2</v>
+      </c>
+      <c r="D116" s="8">
+        <v>3.7220999999999997E-2</v>
+      </c>
+      <c r="E116" s="8">
+        <v>0.26196142604621198</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3362,14 +3104,14 @@
       <c r="B117" s="2">
         <v>45444</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D117" s="4">
+      <c r="C117" s="8">
+        <v>2.9509619557355701E-2</v>
+      </c>
+      <c r="D117" s="1">
         <v>9.3425999999999995E-2</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>83</v>
+      <c r="E117" s="8">
+        <v>0.134854762062115</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3379,13 +3121,13 @@
       <c r="B118" s="2">
         <v>45474</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D118" s="4">
+      <c r="C118" s="8">
+        <v>2.9509619557355701E-2</v>
+      </c>
+      <c r="D118" s="1">
         <v>-3.5564999999999999E-2</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="1">
         <v>-0.150822379208126</v>
       </c>
     </row>
@@ -3396,14 +3138,14 @@
       <c r="B119" s="2">
         <v>45505</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D119" s="4">
+      <c r="C119" s="8">
+        <v>2.9509619557355701E-2</v>
+      </c>
+      <c r="D119" s="1">
         <v>9.6229999999999996E-3</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>84</v>
+      <c r="E119" s="8">
+        <v>2.9010301315462901E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3413,14 +3155,14 @@
       <c r="B120" s="2">
         <v>45536</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D120" s="4">
+      <c r="C120" s="8">
+        <v>2.9509619557355701E-2</v>
+      </c>
+      <c r="D120" s="1">
         <v>-5.5179999999999899E-3</v>
       </c>
-      <c r="E120" s="5" t="s">
-        <v>85</v>
+      <c r="E120" s="8">
+        <v>0.42589691910264199</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3430,13 +3172,13 @@
       <c r="B121" s="2">
         <v>45566</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E121" s="4">
+      <c r="C121" s="8">
+        <v>2.9509619557355701E-2</v>
+      </c>
+      <c r="D121" s="8">
+        <v>2.4725999999999901E-2</v>
+      </c>
+      <c r="E121" s="1">
         <v>-0.26409258213814302</v>
       </c>
     </row>
@@ -3451,51 +3193,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21002A7D-5D95-B949-BFB8-4AC7BFC15328}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E28" sqref="E22:E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="5" width="22.1640625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="22.1640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>41944</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2.5486999999999999E-2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>-0.10141380800322899</v>
       </c>
       <c r="F2" s="1">
@@ -3507,20 +3249,20 @@
         <v>-0.12493471065041539</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>41974</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>2.1686E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>0.25929571094563097</v>
       </c>
       <c r="F3" s="1">
@@ -3532,20 +3274,20 @@
         <v>0.23577480829844458</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>42005</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>5.5529999999999998E-3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.135588595651564</v>
       </c>
       <c r="F4" s="1">
@@ -3557,20 +3299,20 @@
         <v>0.11206769300437761</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>42036</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>2.3067000000000001E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>-0.17426032440380901</v>
       </c>
       <c r="F5" s="1">
@@ -3582,20 +3324,20 @@
         <v>-0.19778122705099541</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>42064</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>-3.7030000000000001E-3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>-1.3611226628557099E-2</v>
       </c>
       <c r="F6" s="1">
@@ -3607,20 +3349,20 @@
         <v>-3.7132129275743497E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>42095</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>1.0048E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.372564839806237</v>
       </c>
       <c r="F7" s="1">
@@ -3632,20 +3374,20 @@
         <v>0.34904393715905058</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>42125</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>-1.247E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>-0.333643559219859</v>
       </c>
       <c r="F8" s="1">
@@ -3657,20 +3399,20 @@
         <v>-0.35716446186704542</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>42156</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>-3.7437999999999999E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>1.2310219049351799E-2</v>
       </c>
       <c r="F9" s="1">
@@ -3682,20 +3424,20 @@
         <v>-1.1210683597834602E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>42186</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>-6.5626000000000004E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.305807653624943</v>
       </c>
       <c r="F10" s="1">
@@ -3707,20 +3449,20 @@
         <v>0.28228675097775657</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>42217</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>-5.0618999999999997E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>-6.3508533421454405E-2</v>
       </c>
       <c r="F11" s="1">
@@ -3732,20 +3474,20 @@
         <v>-8.7029436068640803E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>42248</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>2.3520902647186401E-2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>1.8186000000000001E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>-3.0977762659245602E-2</v>
       </c>
       <c r="F12" s="1">
@@ -3757,20 +3499,20 @@
         <v>-5.4498665306432006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>42278</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="8">
+        <v>2.2132214668016702E-2</v>
+      </c>
+      <c r="D13" s="1">
         <v>4.7784E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>7.0184356107787504E-2</v>
       </c>
       <c r="F13" s="1">
@@ -3782,20 +3524,20 @@
         <v>4.8052141439770803E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>42309</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="8">
+        <v>2.2132214668016702E-2</v>
+      </c>
+      <c r="D14" s="1">
         <v>-2.5437999999999999E-2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.34484947348242101</v>
       </c>
       <c r="F14" s="1">
@@ -3807,20 +3549,20 @@
         <v>0.32271725881440433</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>42339</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="8">
+        <v>2.2132214668016702E-2</v>
+      </c>
+      <c r="D15" s="1">
         <v>7.5139999999999998E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>-2.40536958684394E-2</v>
       </c>
       <c r="F15" s="1">
@@ -3832,20 +3574,20 @@
         <v>-4.6185910536456098E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>42370</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="8">
+        <v>2.09171126862433E-2</v>
+      </c>
+      <c r="D16" s="1">
         <v>-1.7492000000000001E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>9.7006590112495208E-3</v>
       </c>
       <c r="F16" s="1">
@@ -3857,20 +3599,20 @@
         <v>-1.1216453674993779E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>42401</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="8">
+        <v>2.09171126862433E-2</v>
+      </c>
+      <c r="D17" s="1">
         <v>3.5366000000000002E-2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>1.13684071367829E-2</v>
       </c>
       <c r="F17" s="1">
@@ -3882,20 +3624,20 @@
         <v>-9.5487055494604001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>42430</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="8">
+        <v>1.95284247070736E-2</v>
+      </c>
+      <c r="D18" s="1">
         <v>3.7925E-2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>0.46858663521524202</v>
       </c>
       <c r="F18" s="1">
@@ -3907,20 +3649,20 @@
         <v>0.44905821050816841</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>42461</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="8">
+        <v>1.95284247070736E-2</v>
+      </c>
+      <c r="D19" s="1">
         <v>-4.4600999999999898E-2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>0.46527146470365199</v>
       </c>
       <c r="F19" s="1">
@@ -3932,20 +3674,20 @@
         <v>0.44574303999657838</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>42491</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="8">
+        <v>1.95284247070736E-2</v>
+      </c>
+      <c r="D20" s="1">
         <v>1.721E-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>0.26045741524835198</v>
       </c>
       <c r="F20" s="1">
@@ -3957,20 +3699,20 @@
         <v>0.24092899054127837</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>42522</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="8">
+        <v>1.95284247070736E-2</v>
+      </c>
+      <c r="D21" s="4">
         <v>2.7577999999999998E-2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>0.15346113545720499</v>
       </c>
       <c r="F21" s="1">
@@ -3982,20 +3724,20 @@
         <v>0.13393271075013138</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>42552</v>
       </c>
-      <c r="C22" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D22" s="1">
         <v>5.1691000000000001E-2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>0.214275446805446</v>
       </c>
       <c r="F22" s="1">
@@ -4007,20 +3749,20 @@
         <v>0.1961357100775421</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>42583</v>
       </c>
-      <c r="C23" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D23" s="1">
         <v>1.3990000000000001E-2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>0.34473559706569901</v>
       </c>
       <c r="F23" s="1">
@@ -4032,20 +3774,20 @@
         <v>0.32659586033779509</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>42614</v>
       </c>
-      <c r="C24" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D24" s="1">
         <v>1.3873999999999999E-2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>-7.5473467408226497E-2</v>
       </c>
       <c r="F24" s="1">
@@ -4057,20 +3799,20 @@
         <v>-9.361320413613039E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>42644</v>
       </c>
-      <c r="C25" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D25" s="1">
         <v>1.0083999999999999E-2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>0.29020376332099501</v>
       </c>
       <c r="F25" s="1">
@@ -4082,20 +3824,20 @@
         <v>0.27206402659309109</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>42675</v>
       </c>
-      <c r="C26" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="C26" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D26" s="1">
         <v>-1.7610000000000001E-2</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>-0.13054971660558201</v>
       </c>
       <c r="F26" s="1">
@@ -4107,20 +3849,20 @@
         <v>-0.1486894533334859</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>42705</v>
       </c>
-      <c r="C27" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="C27" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D27" s="1">
         <v>7.6399999999999895E-4</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>-2.3854464475103299E-2</v>
       </c>
       <c r="F27" s="1">
@@ -4132,20 +3874,20 @@
         <v>-4.1994201203007203E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>42736</v>
       </c>
-      <c r="C28" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C28" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D28" s="4">
         <v>2.2418999999999901E-2</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>0.24366878261312599</v>
       </c>
       <c r="F28" s="1">
@@ -4157,20 +3899,20 @@
         <v>0.2255290458852221</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>42767</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="C29" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D29" s="1">
         <v>3.6109000000000002E-2</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="1">
         <v>-0.16081988492101501</v>
       </c>
       <c r="F29" s="1">
@@ -4182,20 +3924,20 @@
         <v>-0.1789596216489189</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>42795</v>
       </c>
-      <c r="C30" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="C30" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D30" s="1">
         <v>4.5069999999999997E-3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="1">
         <v>6.2329395867328802E-2</v>
       </c>
       <c r="F30" s="1">
@@ -4207,20 +3949,20 @@
         <v>4.4189659139424901E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>42826</v>
       </c>
-      <c r="C31" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="C31" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D31" s="1">
         <v>6.3790000000000001E-3</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="1">
         <v>-6.2645191945533807E-2</v>
       </c>
       <c r="F31" s="1">
@@ -4232,20 +3974,20 @@
         <v>-8.07849286734377E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>42856</v>
       </c>
-      <c r="C32" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="C32" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D32" s="1">
         <v>1.8041000000000001E-2</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>4.2319458882511297E-2</v>
       </c>
       <c r="F32" s="1">
@@ -4257,20 +3999,20 @@
         <v>2.4179722154607397E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>42887</v>
       </c>
-      <c r="C33" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="C33" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D33" s="1">
         <v>4.1258999999999997E-2</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="1">
         <v>-0.39804728937615202</v>
       </c>
       <c r="F33" s="1">
@@ -4282,20 +4024,20 @@
         <v>-0.41618702610405595</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>42917</v>
       </c>
-      <c r="C34" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C34" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D34" s="4">
         <v>2.5191999999999999E-2</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="1">
         <v>-0.220191727351261</v>
       </c>
       <c r="F34" s="1">
@@ -4307,20 +4049,20 @@
         <v>-0.23833146407916489</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>42948</v>
       </c>
-      <c r="C35" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="C35" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D35" s="1">
         <v>2.2828000000000001E-2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="1">
         <v>-3.4612794105171402E-2</v>
       </c>
       <c r="F35" s="1">
@@ -4332,20 +4074,20 @@
         <v>-5.2752530833075302E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>42979</v>
       </c>
-      <c r="C36" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C36" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D36" s="1">
         <v>-1.6462999999999998E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>0.24719405060170799</v>
       </c>
       <c r="F36" s="1">
@@ -4357,20 +4099,20 @@
         <v>0.22905431387380409</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>43009</v>
       </c>
-      <c r="C37" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="C37" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D37" s="1">
         <v>4.0819000000000001E-2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="1">
         <v>5.65165959874393E-2</v>
       </c>
       <c r="F37" s="1">
@@ -4382,20 +4124,20 @@
         <v>3.8376859259535399E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>43040</v>
       </c>
-      <c r="C38" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="C38" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D38" s="1">
         <v>-2.17309999999999E-2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="1">
         <v>8.7077961572638404E-2</v>
       </c>
       <c r="F38" s="1">
@@ -4407,20 +4149,20 @@
         <v>6.8938224844734497E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>43070</v>
       </c>
-      <c r="C39" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="C39" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D39" s="1">
         <v>2.2439999999999999E-3</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>0.20576484427156699</v>
       </c>
       <c r="F39" s="1">
@@ -4432,20 +4174,20 @@
         <v>0.1876251075436631</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>43101</v>
       </c>
-      <c r="C40" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="C40" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D40" s="1">
         <v>4.1840000000000002E-2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="1">
         <v>-6.5724409898048994E-2</v>
       </c>
       <c r="F40" s="1">
@@ -4457,20 +4199,20 @@
         <v>-8.3864146625952901E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>43132</v>
       </c>
-      <c r="C41" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="C41" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D41" s="1">
         <v>-2.9498E-2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>0.135700952980919</v>
       </c>
       <c r="F41" s="1">
@@ -4482,20 +4224,20 @@
         <v>0.11756121625301511</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>43160</v>
       </c>
-      <c r="C42" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C42" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D42" s="4">
         <v>1.42219999999999E-2</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="1">
         <v>-5.2880401500854102E-2</v>
       </c>
       <c r="F42" s="1">
@@ -4507,20 +4249,20 @@
         <v>-7.1020138228757995E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>43191</v>
       </c>
-      <c r="C43" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="C43" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D43" s="1">
         <v>-3.2940999999999998E-2</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="1">
         <v>-0.21259585422360699</v>
       </c>
       <c r="F43" s="1">
@@ -4532,20 +4274,20 @@
         <v>-0.23073559095151089</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>43221</v>
       </c>
-      <c r="C44" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="C44" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D44" s="1">
         <v>2.5883E-2</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>1.88929118575356E-2</v>
       </c>
       <c r="F44" s="1">
@@ -4557,20 +4299,20 @@
         <v>7.531751296316995E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>43252</v>
       </c>
-      <c r="C45" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="C45" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D45" s="1">
         <v>2.6219999999999898E-3</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>0.18595124802041599</v>
       </c>
       <c r="F45" s="1">
@@ -4582,20 +4324,20 @@
         <v>0.16781151129251209</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>43282</v>
       </c>
-      <c r="C46" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C46" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D46" s="4">
         <v>3.9876999999999899E-2</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>0.14521868995984999</v>
       </c>
       <c r="F46" s="1">
@@ -4607,20 +4349,20 @@
         <v>0.1270789532319461</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>43313</v>
       </c>
-      <c r="C47" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="C47" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D47" s="1">
         <v>-1.07E-4</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="1">
         <v>8.4536443667627303E-2</v>
       </c>
       <c r="F47" s="1">
@@ -4632,20 +4374,20 @@
         <v>6.639670693972341E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>43344</v>
       </c>
-      <c r="C48" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C48" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D48" s="1">
         <v>-1.5184E-2</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>0.50087166569141095</v>
       </c>
       <c r="F48" s="1">
@@ -4657,20 +4399,20 @@
         <v>0.48273192896350703</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>43374</v>
       </c>
-      <c r="C49" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="C49" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D49" s="1">
         <v>-0.119809</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>0.15808924265157001</v>
       </c>
       <c r="F49" s="1">
@@ -4682,20 +4424,20 @@
         <v>0.13994950592366612</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>43405</v>
       </c>
-      <c r="C50" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D50" s="4">
+      <c r="C50" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D50" s="1">
         <v>1.5547999999999999E-2</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>0.256073109138094</v>
       </c>
       <c r="F50" s="1">
@@ -4707,20 +4449,20 @@
         <v>0.23793337241019011</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>43435</v>
       </c>
-      <c r="C51" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D51" s="4">
+      <c r="C51" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D51" s="1">
         <v>-1.7004999999999999E-2</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>0.47416501332195199</v>
       </c>
       <c r="F51" s="1">
@@ -4732,20 +4474,20 @@
         <v>0.45602527659404807</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>43466</v>
       </c>
-      <c r="C52" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C52" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D52" s="4">
         <v>2.4548999999999901E-2</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="1">
         <v>-0.13751196752251399</v>
       </c>
       <c r="F52" s="1">
@@ -4757,20 +4499,20 @@
         <v>-0.15565170425041788</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>43497</v>
       </c>
-      <c r="C53" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D53" s="4">
+      <c r="C53" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D53" s="1">
         <v>4.8672E-2</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="1">
         <v>-9.3302098278641096E-2</v>
       </c>
       <c r="F53" s="1">
@@ -4782,20 +4524,20 @@
         <v>-0.111441835006545</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>43525</v>
       </c>
-      <c r="C54" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="C54" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D54" s="1">
         <v>2.4049000000000001E-2</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>0.38854424534971599</v>
       </c>
       <c r="F54" s="1">
@@ -4807,20 +4549,20 @@
         <v>0.37040450862181207</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>43556</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D55" s="4">
+      <c r="C55" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D55" s="1">
         <v>2.8715999999999998E-2</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="1">
         <v>-5.1615603478189297E-2</v>
       </c>
       <c r="F55" s="1">
@@ -4832,20 +4574,20 @@
         <v>-6.9755340206093197E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>43586</v>
       </c>
-      <c r="C56" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D56" s="4">
+      <c r="C56" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D56" s="1">
         <v>-4.99E-2</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="1">
         <v>9.1725386477016502E-2</v>
       </c>
       <c r="F56" s="1">
@@ -4857,20 +4599,20 @@
         <v>7.3585649749112608E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>43617</v>
       </c>
-      <c r="C57" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="C57" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D57" s="1">
         <v>3.3364999999999999E-2</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>0.27175886561024298</v>
       </c>
       <c r="F57" s="1">
@@ -4882,20 +4624,20 @@
         <v>0.25361912888233906</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>43647</v>
       </c>
-      <c r="C58" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D58" s="4">
+      <c r="C58" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D58" s="1">
         <v>3.4741000000000001E-2</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>0.24082899725628901</v>
       </c>
       <c r="F58" s="1">
@@ -4907,20 +4649,20 @@
         <v>0.22268926052838511</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>43678</v>
       </c>
-      <c r="C59" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D59" s="4">
+      <c r="C59" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D59" s="1">
         <v>-1.2383999999999999E-2</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="1">
         <v>0.39047924244355903</v>
       </c>
       <c r="F59" s="1">
@@ -4932,20 +4674,20 @@
         <v>0.37233950571565511</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>43709</v>
       </c>
-      <c r="C60" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D60" s="4">
+      <c r="C60" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D60" s="1">
         <v>1.9923E-2</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>0.34558622827300001</v>
       </c>
       <c r="F60" s="1">
@@ -4957,20 +4699,20 @@
         <v>0.32744649154509609</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>43739</v>
       </c>
-      <c r="C61" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C61" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D61" s="4">
         <v>4.9045999999999999E-2</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>0.27177214781845899</v>
       </c>
       <c r="F61" s="1">
@@ -4982,20 +4724,20 @@
         <v>0.25363241109055507</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>43770</v>
       </c>
-      <c r="C62" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C62" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D62" s="4">
         <v>1.00279999999999E-2</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="1">
         <v>-4.7225040890286701E-2</v>
       </c>
       <c r="F62" s="1">
@@ -5007,20 +4749,20 @@
         <v>-6.5364777618190595E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>43800</v>
       </c>
-      <c r="C63" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="C63" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D63" s="1">
         <v>4.7690999999999997E-2</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>0.224231714056677</v>
       </c>
       <c r="F63" s="1">
@@ -5032,20 +4774,20 @@
         <v>0.2060919773287731</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>43831</v>
       </c>
-      <c r="C64" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="C64" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D64" s="1">
         <v>-4.7992E-2</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>0.141007698791561</v>
       </c>
       <c r="F64" s="1">
@@ -5057,20 +4799,20 @@
         <v>0.1228679620636571</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>43862</v>
       </c>
-      <c r="C65" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="C65" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D65" s="1">
         <v>-1.9925999999999999E-2</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="1">
         <v>-0.143084610404309</v>
       </c>
       <c r="F65" s="1">
@@ -5082,20 +4824,20 @@
         <v>-0.1612243471322129</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>43891</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="1">
         <v>-0.13847400000000001</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>0.33201918801430202</v>
       </c>
       <c r="F66" s="1">
@@ -5107,20 +4849,20 @@
         <v>0.31821910122130331</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>43922</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="1">
         <v>0.139047</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <v>0.226374499873119</v>
       </c>
       <c r="F67" s="1">
@@ -5132,20 +4874,20 @@
         <v>0.21257441308012029</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>43952</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="1">
         <v>1.954E-3</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="1">
         <v>9.4462662970494493E-2</v>
       </c>
       <c r="F68" s="1">
@@ -5157,20 +4899,20 @@
         <v>8.0662576177495796E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>43983</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="1">
         <v>7.4548000000000003E-2</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="1">
         <v>4.6220519093965899E-2</v>
       </c>
       <c r="F69" s="1">
@@ -5182,20 +4924,20 @@
         <v>3.2420432300967202E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>44013</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>0.110883</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="1">
         <v>-0.120924995753296</v>
       </c>
       <c r="F70" s="1">
@@ -5207,20 +4949,20 @@
         <v>-0.1347250825462947</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>44044</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="1">
         <v>1.0870000000000001E-3</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>0.12113677067027</v>
       </c>
       <c r="F71" s="1">
@@ -5232,20 +4974,20 @@
         <v>0.1073366838772713</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>44075</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="1">
         <v>-2.1919999999999999E-3</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>0.16770486099728499</v>
       </c>
       <c r="F72" s="1">
@@ -5257,20 +4999,20 @@
         <v>0.15390477420428628</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>44105</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="1">
         <v>4.1939999999999998E-3</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="1">
         <v>-5.7346197077280003E-2</v>
       </c>
       <c r="F73" s="1">
@@ -5282,20 +5024,20 @@
         <v>-7.1146283870278701E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>44136</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="1">
         <v>9.7289E-2</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="4">
         <v>0.28784431917922698</v>
       </c>
       <c r="F74" s="1">
@@ -5307,20 +5049,20 @@
         <v>0.27404423238622827</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>44166</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="1">
         <v>7.5991000000000003E-2</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="1">
         <v>-0.10341781108029</v>
       </c>
       <c r="F75" s="1">
@@ -5332,20 +5074,20 @@
         <v>-0.11721789787328869</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>44197</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>2.9325999999999901E-2</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="1">
         <v>-0.28107272116839699</v>
       </c>
       <c r="F76" s="1">
@@ -5357,20 +5099,20 @@
         <v>-0.2948728079613957</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>44228</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="1">
         <v>5.6499000000000001E-2</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="4">
         <v>0.26663495161133699</v>
       </c>
       <c r="F77" s="1">
@@ -5382,20 +5124,20 @@
         <v>0.25283486481833828</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>44256</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>2.8062999999999901E-2</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>1.67341289940659E-2</v>
       </c>
       <c r="F78" s="1">
@@ -5407,20 +5149,20 @@
         <v>2.9340422010672006E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>44287</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="1">
         <v>6.8311999999999998E-2</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="1">
         <v>6.47605566037837E-2</v>
       </c>
       <c r="F79" s="1">
@@ -5432,20 +5174,20 @@
         <v>5.0960469810785003E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>44317</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="1">
         <v>-3.5685000000000001E-2</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="1">
         <v>-5.8447861046790298E-2</v>
       </c>
       <c r="F80" s="1">
@@ -5457,20 +5199,20 @@
         <v>-7.2247947839788995E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>44348</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="1">
         <v>4.8728E-2</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="1">
         <v>-0.19151986669069701</v>
       </c>
       <c r="F81" s="1">
@@ -5482,20 +5224,20 @@
         <v>-0.20531995348369572</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>44378</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="1">
         <v>-2.1326000000000001E-2</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>0.30395492502808502</v>
       </c>
       <c r="F82" s="1">
@@ -5507,20 +5249,20 @@
         <v>0.29015483823508631</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>44409</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>1.5172E-2</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="1">
         <v>-3.27064923821722E-2</v>
       </c>
       <c r="F83" s="1">
@@ -5532,20 +5274,20 @@
         <v>-4.6506579175170898E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>44440</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="1">
         <v>-3.1844999999999998E-2</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4">
         <v>0.37421271959153801</v>
       </c>
       <c r="F84" s="1">
@@ -5557,20 +5299,20 @@
         <v>0.3604126327985393</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>44470</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="1">
         <v>4.7869999999999996E-3</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="4">
         <v>0.2263869078054</v>
       </c>
       <c r="F85" s="1">
@@ -5582,20 +5324,20 @@
         <v>0.21258682101240128</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>44501</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="1">
         <v>2.7913E-2</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="1">
         <v>3.2078381213483803E-2</v>
       </c>
       <c r="F86" s="1">
@@ -5607,20 +5349,20 @@
         <v>1.8278294420485106E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>44531</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>4.6723999999999898E-2</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="1">
         <v>-0.10146087530541099</v>
       </c>
       <c r="F87" s="1">
@@ -5632,20 +5374,20 @@
         <v>-0.11526096209840969</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>44562</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="1">
         <v>-4.1428E-2</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="1">
         <v>-4.0255504334049397E-2</v>
       </c>
       <c r="F88" s="1">
@@ -5657,20 +5399,20 @@
         <v>-5.4055591127048094E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>44593</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="1">
         <v>1.3800086792998699E-2</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="1">
         <v>-8.9599999999999999E-4</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="1">
         <v>-0.123387820936092</v>
       </c>
       <c r="F89" s="1">
@@ -5682,20 +5424,20 @@
         <v>-0.1371879077290907</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>44621</v>
       </c>
-      <c r="C90" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D90" s="4">
+      <c r="C90" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D90" s="1">
         <v>-3.4529999999999999E-3</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <v>0.44801111153204398</v>
       </c>
       <c r="F90" s="1">
@@ -5707,20 +5449,20 @@
         <v>0.42987137480414006</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>44652</v>
       </c>
-      <c r="C91" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D91" s="4">
+      <c r="C91" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D91" s="1">
         <v>-7.0456000000000005E-2</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <v>0.115061465319929</v>
       </c>
       <c r="F91" s="1">
@@ -5732,20 +5474,20 @@
         <v>9.6921728592025108E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>44682</v>
       </c>
-      <c r="C92" s="4">
-        <v>1.81397367279039E-2</v>
-      </c>
-      <c r="D92" s="5">
+      <c r="C92" s="1">
+        <v>1.81397367279039E-2</v>
+      </c>
+      <c r="D92" s="4">
         <v>2.47949999999999E-2</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4">
         <v>0.28576653459450202</v>
       </c>
       <c r="F92" s="1">
@@ -5757,20 +5499,20 @@
         <v>0.2676267978665981</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="18">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>44713</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="8">
         <v>2.0830319687545201E-2</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="1">
         <v>-0.10867300000000001</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="1">
         <v>-0.13288255929697099</v>
       </c>
       <c r="F93" s="1">
@@ -5782,20 +5524,20 @@
         <v>-0.15371287898451619</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>44743</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="8">
         <v>2.0830319687545201E-2</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>3.4848999999999998E-2</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <v>0.117935035305793</v>
       </c>
       <c r="F94" s="1">
@@ -5807,20 +5549,20 @@
         <v>9.7104715618247794E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>44774</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="8">
         <v>2.0830319687545201E-2</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="1">
         <v>1.502E-2</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="4">
         <v>0.29055580012257198</v>
       </c>
       <c r="F95" s="1">
@@ -5832,20 +5574,20 @@
         <v>0.26972548043502675</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="18">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>44805</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="1">
         <v>2.3000144654997799E-2</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="1">
         <v>-0.11479499999999999</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="1">
         <v>2.8571230426864901E-2</v>
       </c>
       <c r="F96" s="1">
@@ -5857,20 +5599,20 @@
         <v>5.5710857718671014E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>44835</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="1">
         <v>2.3000144654997799E-2</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="1">
         <v>-3.7534999999999999E-2</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <v>0.265143499832378</v>
       </c>
       <c r="F97" s="1">
@@ -5882,20 +5624,20 @@
         <v>0.2421433551773802</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>44866</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="1">
         <v>2.3000144654997799E-2</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="1">
         <v>0.15134300000000001</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="1">
         <v>-0.101229781467851</v>
       </c>
       <c r="F98" s="1">
@@ -5907,20 +5649,20 @@
         <v>-0.1242299261228488</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>44896</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="8">
         <v>2.5169969622450401E-2</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="1">
         <v>-4.7500000000000001E-2</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="1">
         <v>-0.14952759802625701</v>
       </c>
       <c r="F99" s="1">
@@ -5932,20 +5674,20 @@
         <v>-0.17469756764870742</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>44927</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="8">
         <v>2.5169969622450401E-2</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="1">
         <v>8.3240999999999996E-2</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="4">
         <v>0.152286038893092</v>
       </c>
       <c r="F100" s="1">
@@ -5957,20 +5699,20 @@
         <v>0.12711606927064159</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>44958</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="8">
         <v>2.5169969622450401E-2</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="1">
         <v>1.8727000000000001E-2</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="1">
         <v>2.0923049098641702E-2</v>
       </c>
       <c r="F101" s="1">
@@ -5982,20 +5724,20 @@
         <v>-4.2469205238086991E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>44986</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="1">
         <v>3.1924000000000001E-2</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="4">
         <v>0.19776991559909901</v>
       </c>
       <c r="F102" s="1">
@@ -6007,20 +5749,20 @@
         <v>0.17043012100919602</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="2">
         <v>45017</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="1">
         <v>-2.2835999999999999E-2</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="1">
         <v>-0.25592624786478801</v>
       </c>
       <c r="F103" s="1">
@@ -6032,20 +5774,20 @@
         <v>-0.283266042454691</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>45047</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="1">
         <v>6.3951999999999995E-2</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="4">
         <v>0.20992819073632901</v>
       </c>
       <c r="F104" s="1">
@@ -6057,20 +5799,20 @@
         <v>0.18258839614642602</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="2">
         <v>45078</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="1">
         <v>3.7093000000000001E-2</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="4">
         <v>0.53653411868314005</v>
       </c>
       <c r="F105" s="1">
@@ -6082,20 +5824,20 @@
         <v>0.50919432409323706</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="2">
         <v>45108</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="1">
         <v>1.7646999999999999E-2</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="1">
         <v>8.2320645774191403E-2</v>
       </c>
       <c r="F106" s="1">
@@ -6107,20 +5849,20 @@
         <v>5.4980851184288401E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="2">
         <v>45139</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="1">
         <v>-2.6884999999999999E-2</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="1">
         <v>9.2497535139736797E-2</v>
       </c>
       <c r="F107" s="1">
@@ -6132,20 +5874,20 @@
         <v>6.5157740549833795E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>45170</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="1">
         <v>-1.6482E-2</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="4">
         <v>0.117677765771525</v>
       </c>
       <c r="F108" s="1">
@@ -6157,20 +5899,20 @@
         <v>9.0337971181621998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="2">
         <v>45200</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="1">
         <v>-2.2737E-2</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="1">
         <v>-0.23585369763951999</v>
       </c>
       <c r="F109" s="1">
@@ -6182,20 +5924,20 @@
         <v>-0.26319349222942301</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="18">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="2">
         <v>45231</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="1">
         <v>9.1646000000000005E-2</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="4">
         <v>0.160381060981174</v>
       </c>
       <c r="F110" s="1">
@@ -6207,20 +5949,20 @@
         <v>0.13304126639127101</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="18">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="2">
         <v>45261</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="1">
         <v>2.9387E-2</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="1">
         <v>-0.19142410064079099</v>
       </c>
       <c r="F111" s="1">
@@ -6232,20 +5974,20 @@
         <v>-0.21876389523069398</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="2">
         <v>45292</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="1">
         <v>1.8659999999999901E-3</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="4">
         <v>1.2523743310635599E-2</v>
       </c>
       <c r="F112" s="1">
@@ -6257,20 +5999,20 @@
         <v>-1.4816051279267399E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>45323</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="8">
         <v>2.7339794589902999E-2</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="1">
         <v>6.0871000000000001E-2</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="4">
         <v>0.301813185448362</v>
       </c>
       <c r="F113" s="1">
@@ -6282,20 +6024,20 @@
         <v>0.27447339085845901</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="18">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>45352</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="8">
         <v>2.9509619557355701E-2</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="1">
         <v>6.6184999999999994E-2</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="1">
         <v>-4.0732583117406802E-2</v>
       </c>
       <c r="F114" s="1">
@@ -6307,20 +6049,20 @@
         <v>-7.0242202674762499E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="18">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>45383</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="8">
         <v>2.9509619557355701E-2</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="1">
         <v>1.7409999999999999E-3</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="4">
         <v>0.17338655497022001</v>
       </c>
       <c r="F115" s="1">
@@ -6332,20 +6074,20 @@
         <v>0.14387693541286431</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="18">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>45413</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="8">
         <v>2.9509619557355701E-2</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <v>3.7220999999999997E-2</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="4">
         <v>0.26196142604621198</v>
       </c>
       <c r="F116" s="1">
@@ -6357,20 +6099,20 @@
         <v>0.23245180648885627</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="18">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>45444</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="8">
         <v>2.9509619557355701E-2</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="1">
         <v>9.3425999999999995E-2</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="4">
         <v>0.134854762062115</v>
       </c>
       <c r="F117" s="1">
@@ -6382,20 +6124,20 @@
         <v>0.10534514250475929</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="18">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>45474</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="8">
         <v>2.9509619557355701E-2</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="1">
         <v>-3.5564999999999999E-2</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="1">
         <v>-0.150822379208126</v>
       </c>
       <c r="F118" s="1">
@@ -6407,20 +6149,20 @@
         <v>-0.1803319987654817</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="18">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>45505</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="8">
         <v>2.9509619557355701E-2</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="1">
         <v>9.6229999999999996E-3</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="4">
         <v>2.9010301315462901E-2</v>
       </c>
       <c r="F119" s="1">
@@ -6432,20 +6174,20 @@
         <v>-4.9931824189279952E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="18">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>45536</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="8">
         <v>2.9509619557355701E-2</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="1">
         <v>-5.5179999999999899E-3</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="4">
         <v>0.42589691910264199</v>
       </c>
       <c r="F120" s="1">
@@ -6457,20 +6199,20 @@
         <v>0.39638729954528629</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="18">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>45566</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="8">
         <v>2.9509619557355701E-2</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>2.4725999999999901E-2</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="1">
         <v>-0.26409258213814302</v>
       </c>
       <c r="F121" s="1">
@@ -6504,38 +6246,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <f>_xlfn.COVARIANCE.P(Step2!F2:F121,Step2!F2:F121)</f>
         <v>2.0799334655441674E-3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>_xlfn.COVARIANCE.P(Step2!F2:F121,Step2!G2:G121)</f>
         <v>-3.32783535242953E-4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>AVERAGE(Step2!F2:F121)</f>
         <v>1.109964999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f>_xlfn.COVARIANCE.P(Step2!G2:G121,Step2!F2:F121)</f>
         <v>-3.32783535242953E-4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>_xlfn.COVARIANCE.P(Step2!G2:G121,Step2!G2:G121)</f>
         <v>3.9739217419336371E-2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>AVERAGE(Step2!G2:G121)</f>
         <v>6.9380553664536493E-2</v>
       </c>
@@ -6559,14 +6301,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
-        <v>92</v>
+      <c r="A1" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
         <f>1 / (AVERAGE(Step2!E2:E121) - AVERAGE(Step2!C2:C121)) * _xlfn.VAR.P(Step2!E2:E121) /2</f>
-        <v>0.28562769106544283</v>
+        <v>0.28586300174584778</v>
       </c>
     </row>
   </sheetData>
@@ -6579,7 +6321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1409CFBA-1B85-134C-ACA5-B685778FFD19}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -6589,12 +6331,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="6" t="s">
-        <v>94</v>
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6607,7 +6349,7 @@
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2:D3">t!A2*MMULT(_xlfn.ANCHORARRAY(A2), Step3!D2:D3)</f>
-        <v>1.6062027374621453</v>
+        <v>1.6075259868208143</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6618,7 +6360,7 @@
         <v>25.197819904378001</v>
       </c>
       <c r="D3">
-        <v>0.51212697418219644</v>
+        <v>0.51254888336858873</v>
       </c>
     </row>
   </sheetData>

--- a/國際併購/final_task/weight.xlsx
+++ b/國際併購/final_task/weight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/Github/M2/國際併購/final_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC761D2-07B7-3B47-BFC8-2E8A9DA83CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC005C3-4DE1-7B4D-8705-C84B4AF51A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="0" windowWidth="22800" windowHeight="18000" activeTab="1" xr2:uid="{97444554-7081-F648-9ABC-A5219D7EDD3E}"/>
   </bookViews>
@@ -3193,7 +3193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21002A7D-5D95-B949-BFB8-4AC7BFC15328}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
